--- a/biology/Botanique/Arboretum_de_l'Hermet/Arboretum_de_l'Hermet.xlsx
+++ b/biology/Botanique/Arboretum_de_l'Hermet/Arboretum_de_l'Hermet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arboretum_de_l%27Hermet</t>
+          <t>Arboretum_de_l'Hermet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arboretum de l'Hermet est un arboretum de 3 hectares d'extension, situé à Riotord, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arboretum_de_l%27Hermet</t>
+          <t>Arboretum_de_l'Hermet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Lieu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arboretum de l'Hermet est situé à une altitude de 1 000 m, et à 6 km à l'est de Riotord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arboretum de l'Hermet est situé à une altitude de 1 000 m, et à 6 km à l'est de Riotord.
 Il est ouvert tous les jours de la semaine pendant les mois chauds de l'année.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arboretum_de_l%27Hermet</t>
+          <t>Arboretum_de_l'Hermet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arboretum a été créé en 1998.
 L'objectif principal est d'expérimenter avec des espèces d'arbres, pour l'enrichissement des ressources forestières.
-Mais aussi le début de la connaissance de l'environnement forestier pour le grand public et pour les écoliers[2].
+Mais aussi le début de la connaissance de l'environnement forestier pour le grand public et pour les écoliers.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arboretum_de_l%27Hermet</t>
+          <t>Arboretum_de_l'Hermet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il abrite actuellement des espèces introduites telles que Sequoiadendron giganteum, Quercus rubra, Larix kaempferi, Picea et Abies. 
 </t>
